--- a/Assets/MatrixSample.xlsx
+++ b/Assets/MatrixSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Python\WAPORIDOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Python\WAPORIDOR\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224A81CD-C44A-4EE5-A296-541A672E1437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DB01B0-C759-446B-986F-5C30535F14DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{F44BEC13-7B8F-4D7B-8CEE-7E5C263BCD0D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F44BEC13-7B8F-4D7B-8CEE-7E5C263BCD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -52,12 +52,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,8 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,21 +458,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BD3B24-F556-4448-BA95-D11A83363A37}">
-  <dimension ref="B7:V21"/>
+  <dimension ref="B7:V65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35:S42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="3.26171875" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="3.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="11:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K7">
         <v>0</v>
       </c>
@@ -487,7 +508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="11:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K8">
         <f t="shared" ref="K8:K15" si="1">S7+1</f>
         <v>9</v>
@@ -525,7 +546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="11:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K9">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -563,7 +584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="11:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K10">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -607,7 +628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="11:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K11">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -645,7 +666,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="11:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K12">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -683,7 +704,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="11:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K13">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -721,7 +742,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="11:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K14">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -759,7 +780,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="11:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K15">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -797,7 +818,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -818,7 +839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -839,13 +860,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20">
         <f>(((C18-1)*9)+C19)/2</f>
         <v>-4.5</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21">
         <f>B20+9</f>
         <v>4.5</v>
@@ -853,6 +874,1366 @@
       <c r="J21">
         <f>O19*9+O18</f>
         <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <f>K24+1</f>
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" ref="M24:M32" si="7">L24+1</f>
+        <v>2</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" ref="N24:N32" si="8">M24+1</f>
+        <v>3</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" ref="O24:O32" si="9">N24+1</f>
+        <v>4</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" ref="P24:P32" si="10">O24+1</f>
+        <v>5</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>P24+1</f>
+        <v>6</v>
+      </c>
+      <c r="R24" s="2">
+        <f>Q24+1</f>
+        <v>7</v>
+      </c>
+      <c r="S24" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <f t="shared" ref="K25:K32" si="11">S24+1</f>
+        <v>9</v>
+      </c>
+      <c r="L25" s="3">
+        <f>K25+1</f>
+        <v>10</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" ref="Q25:Q32" si="12">P25+1</f>
+        <v>15</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" ref="R25:R26" si="13">Q25+1</f>
+        <v>16</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" ref="S25:S32" si="14">R25+1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K26" s="3">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="L26" s="3">
+        <f>K26+1</f>
+        <v>19</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K27" s="3">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" ref="L27:L32" si="15">K27+1</f>
+        <v>28</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="R27" s="2">
+        <f>Q27+1</f>
+        <v>34</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="15"/>
+        <v>37</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="10"/>
+        <v>41</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" ref="R28:R32" si="16">Q28+1</f>
+        <v>43</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="15"/>
+        <v>46</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="16"/>
+        <v>52</v>
+      </c>
+      <c r="S29" s="2">
+        <f t="shared" si="14"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <f t="shared" si="11"/>
+        <v>54</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="15"/>
+        <v>55</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="9"/>
+        <v>58</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="10"/>
+        <v>59</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="16"/>
+        <v>61</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" si="14"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <f t="shared" si="11"/>
+        <v>63</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="15"/>
+        <v>64</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="10"/>
+        <v>68</v>
+      </c>
+      <c r="Q31" s="2">
+        <f t="shared" si="12"/>
+        <v>69</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="16"/>
+        <v>70</v>
+      </c>
+      <c r="S31" s="2">
+        <f t="shared" si="14"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K32" s="3">
+        <f t="shared" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="15"/>
+        <v>73</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="9"/>
+        <v>76</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="10"/>
+        <v>77</v>
+      </c>
+      <c r="Q32" s="2">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="16"/>
+        <v>79</v>
+      </c>
+      <c r="S32" s="2">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <f>K35+1</f>
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" ref="M35:M43" si="17">L35+1</f>
+        <v>2</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" ref="N35:N43" si="18">M35+1</f>
+        <v>3</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" ref="O35:O43" si="19">N35+1</f>
+        <v>4</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" ref="P35:P43" si="20">O35+1</f>
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
+        <f>P35+1</f>
+        <v>6</v>
+      </c>
+      <c r="R35" s="3">
+        <f>Q35+1</f>
+        <v>7</v>
+      </c>
+      <c r="S35" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K36" s="2">
+        <f t="shared" ref="K36:K43" si="21">S35+1</f>
+        <v>9</v>
+      </c>
+      <c r="L36" s="2">
+        <f>K36+1</f>
+        <v>10</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="Q36" s="3">
+        <f t="shared" ref="Q36:Q43" si="22">P36+1</f>
+        <v>15</v>
+      </c>
+      <c r="R36" s="3">
+        <f t="shared" ref="R36:R37" si="23">Q36+1</f>
+        <v>16</v>
+      </c>
+      <c r="S36" s="3">
+        <f t="shared" ref="S36:S43" si="24">R36+1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K37" s="2">
+        <f t="shared" si="21"/>
+        <v>18</v>
+      </c>
+      <c r="L37" s="2">
+        <f>K37+1</f>
+        <v>19</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="19"/>
+        <v>22</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="20"/>
+        <v>23</v>
+      </c>
+      <c r="Q37" s="3">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="R37" s="3">
+        <f t="shared" si="23"/>
+        <v>25</v>
+      </c>
+      <c r="S37" s="3">
+        <f t="shared" si="24"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K38" s="2">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" ref="L38:L43" si="25">K38+1</f>
+        <v>28</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="17"/>
+        <v>29</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="19"/>
+        <v>31</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="20"/>
+        <v>32</v>
+      </c>
+      <c r="Q38" s="3">
+        <f t="shared" si="22"/>
+        <v>33</v>
+      </c>
+      <c r="R38" s="3">
+        <f>Q38+1</f>
+        <v>34</v>
+      </c>
+      <c r="S38" s="3">
+        <f t="shared" si="24"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K39" s="2">
+        <f t="shared" si="21"/>
+        <v>36</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="25"/>
+        <v>37</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="17"/>
+        <v>38</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="18"/>
+        <v>39</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="19"/>
+        <v>40</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="20"/>
+        <v>41</v>
+      </c>
+      <c r="Q39" s="3">
+        <f t="shared" si="22"/>
+        <v>42</v>
+      </c>
+      <c r="R39" s="3">
+        <f t="shared" ref="R39:R43" si="26">Q39+1</f>
+        <v>43</v>
+      </c>
+      <c r="S39" s="3">
+        <f t="shared" si="24"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K40" s="2">
+        <f t="shared" si="21"/>
+        <v>45</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="25"/>
+        <v>46</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="17"/>
+        <v>47</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="18"/>
+        <v>48</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="20"/>
+        <v>50</v>
+      </c>
+      <c r="Q40" s="3">
+        <f t="shared" si="22"/>
+        <v>51</v>
+      </c>
+      <c r="R40" s="3">
+        <f t="shared" si="26"/>
+        <v>52</v>
+      </c>
+      <c r="S40" s="3">
+        <f t="shared" si="24"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K41" s="2">
+        <f t="shared" si="21"/>
+        <v>54</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" si="25"/>
+        <v>55</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="17"/>
+        <v>56</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="18"/>
+        <v>57</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="19"/>
+        <v>58</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="20"/>
+        <v>59</v>
+      </c>
+      <c r="Q41" s="3">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="R41" s="3">
+        <f t="shared" si="26"/>
+        <v>61</v>
+      </c>
+      <c r="S41" s="3">
+        <f t="shared" si="24"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K42" s="2">
+        <f t="shared" si="21"/>
+        <v>63</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="25"/>
+        <v>64</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="17"/>
+        <v>65</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="18"/>
+        <v>66</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="19"/>
+        <v>67</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="20"/>
+        <v>68</v>
+      </c>
+      <c r="Q42" s="3">
+        <f t="shared" si="22"/>
+        <v>69</v>
+      </c>
+      <c r="R42" s="3">
+        <f t="shared" si="26"/>
+        <v>70</v>
+      </c>
+      <c r="S42" s="3">
+        <f t="shared" si="24"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K43" s="2">
+        <f t="shared" si="21"/>
+        <v>72</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" si="25"/>
+        <v>73</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="17"/>
+        <v>74</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="18"/>
+        <v>75</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="20"/>
+        <v>77</v>
+      </c>
+      <c r="Q43" s="3">
+        <f t="shared" si="22"/>
+        <v>78</v>
+      </c>
+      <c r="R43" s="3">
+        <f t="shared" si="26"/>
+        <v>79</v>
+      </c>
+      <c r="S43" s="3">
+        <f t="shared" si="24"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <f>K46+1</f>
+        <v>1</v>
+      </c>
+      <c r="M46" s="3">
+        <f t="shared" ref="M46:M54" si="27">L46+1</f>
+        <v>2</v>
+      </c>
+      <c r="N46" s="3">
+        <f t="shared" ref="N46:N54" si="28">M46+1</f>
+        <v>3</v>
+      </c>
+      <c r="O46" s="3">
+        <f t="shared" ref="O46:O54" si="29">N46+1</f>
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" ref="P46:P54" si="30">O46+1</f>
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
+        <f>P46+1</f>
+        <v>6</v>
+      </c>
+      <c r="R46" s="3">
+        <f>Q46+1</f>
+        <v>7</v>
+      </c>
+      <c r="S46" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K47" s="3">
+        <f t="shared" ref="K47:K54" si="31">S46+1</f>
+        <v>9</v>
+      </c>
+      <c r="L47" s="3">
+        <f>K47+1</f>
+        <v>10</v>
+      </c>
+      <c r="M47" s="3">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" si="28"/>
+        <v>12</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="29"/>
+        <v>13</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="30"/>
+        <v>14</v>
+      </c>
+      <c r="Q47" s="3">
+        <f t="shared" ref="Q47:Q54" si="32">P47+1</f>
+        <v>15</v>
+      </c>
+      <c r="R47" s="3">
+        <f t="shared" ref="R47:R48" si="33">Q47+1</f>
+        <v>16</v>
+      </c>
+      <c r="S47" s="3">
+        <f t="shared" ref="S47:S54" si="34">R47+1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K48" s="3">
+        <f t="shared" si="31"/>
+        <v>18</v>
+      </c>
+      <c r="L48" s="3">
+        <f>K48+1</f>
+        <v>19</v>
+      </c>
+      <c r="M48" s="3">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="N48" s="3">
+        <f t="shared" si="28"/>
+        <v>21</v>
+      </c>
+      <c r="O48" s="3">
+        <f t="shared" si="29"/>
+        <v>22</v>
+      </c>
+      <c r="P48" s="3">
+        <f t="shared" si="30"/>
+        <v>23</v>
+      </c>
+      <c r="Q48" s="3">
+        <f t="shared" si="32"/>
+        <v>24</v>
+      </c>
+      <c r="R48" s="3">
+        <f t="shared" si="33"/>
+        <v>25</v>
+      </c>
+      <c r="S48" s="3">
+        <f t="shared" si="34"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K49" s="1">
+        <f t="shared" si="31"/>
+        <v>27</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" ref="L49:L54" si="35">K49+1</f>
+        <v>28</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="27"/>
+        <v>29</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="28"/>
+        <v>30</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="29"/>
+        <v>31</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="32"/>
+        <v>33</v>
+      </c>
+      <c r="R49" s="1">
+        <f>Q49+1</f>
+        <v>34</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" si="34"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K50" s="1">
+        <f t="shared" si="31"/>
+        <v>36</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="35"/>
+        <v>37</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="27"/>
+        <v>38</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="28"/>
+        <v>39</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="29"/>
+        <v>40</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="30"/>
+        <v>41</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" si="32"/>
+        <v>42</v>
+      </c>
+      <c r="R50" s="1">
+        <f t="shared" ref="R50:R54" si="36">Q50+1</f>
+        <v>43</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" si="34"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K51" s="1">
+        <f t="shared" si="31"/>
+        <v>45</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="35"/>
+        <v>46</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="27"/>
+        <v>47</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="28"/>
+        <v>48</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="30"/>
+        <v>50</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="32"/>
+        <v>51</v>
+      </c>
+      <c r="R51" s="1">
+        <f t="shared" si="36"/>
+        <v>52</v>
+      </c>
+      <c r="S51" s="1">
+        <f t="shared" si="34"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K52" s="2">
+        <f t="shared" si="31"/>
+        <v>54</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" si="35"/>
+        <v>55</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="27"/>
+        <v>56</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" si="28"/>
+        <v>57</v>
+      </c>
+      <c r="O52" s="2">
+        <f t="shared" si="29"/>
+        <v>58</v>
+      </c>
+      <c r="P52" s="2">
+        <f t="shared" si="30"/>
+        <v>59</v>
+      </c>
+      <c r="Q52" s="2">
+        <f t="shared" si="32"/>
+        <v>60</v>
+      </c>
+      <c r="R52" s="2">
+        <f t="shared" si="36"/>
+        <v>61</v>
+      </c>
+      <c r="S52" s="2">
+        <f t="shared" si="34"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K53" s="2">
+        <f t="shared" si="31"/>
+        <v>63</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="35"/>
+        <v>64</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="27"/>
+        <v>65</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" si="28"/>
+        <v>66</v>
+      </c>
+      <c r="O53" s="2">
+        <f t="shared" si="29"/>
+        <v>67</v>
+      </c>
+      <c r="P53" s="2">
+        <f t="shared" si="30"/>
+        <v>68</v>
+      </c>
+      <c r="Q53" s="2">
+        <f t="shared" si="32"/>
+        <v>69</v>
+      </c>
+      <c r="R53" s="2">
+        <f t="shared" si="36"/>
+        <v>70</v>
+      </c>
+      <c r="S53" s="2">
+        <f t="shared" si="34"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K54" s="2">
+        <f t="shared" si="31"/>
+        <v>72</v>
+      </c>
+      <c r="L54" s="2">
+        <f t="shared" si="35"/>
+        <v>73</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="27"/>
+        <v>74</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" si="28"/>
+        <v>75</v>
+      </c>
+      <c r="O54" s="2">
+        <f t="shared" si="29"/>
+        <v>76</v>
+      </c>
+      <c r="P54" s="2">
+        <f t="shared" si="30"/>
+        <v>77</v>
+      </c>
+      <c r="Q54" s="2">
+        <f t="shared" si="32"/>
+        <v>78</v>
+      </c>
+      <c r="R54" s="2">
+        <f t="shared" si="36"/>
+        <v>79</v>
+      </c>
+      <c r="S54" s="2">
+        <f t="shared" si="34"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <f>K57+1</f>
+        <v>1</v>
+      </c>
+      <c r="M57" s="2">
+        <f t="shared" ref="M57:M65" si="37">L57+1</f>
+        <v>2</v>
+      </c>
+      <c r="N57" s="2">
+        <f t="shared" ref="N57:N65" si="38">M57+1</f>
+        <v>3</v>
+      </c>
+      <c r="O57" s="2">
+        <f t="shared" ref="O57:O65" si="39">N57+1</f>
+        <v>4</v>
+      </c>
+      <c r="P57" s="2">
+        <f t="shared" ref="P57:P65" si="40">O57+1</f>
+        <v>5</v>
+      </c>
+      <c r="Q57" s="2">
+        <f>P57+1</f>
+        <v>6</v>
+      </c>
+      <c r="R57" s="2">
+        <f>Q57+1</f>
+        <v>7</v>
+      </c>
+      <c r="S57" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K58" s="2">
+        <f t="shared" ref="K58:K65" si="41">S57+1</f>
+        <v>9</v>
+      </c>
+      <c r="L58" s="2">
+        <f>K58+1</f>
+        <v>10</v>
+      </c>
+      <c r="M58" s="2">
+        <f t="shared" si="37"/>
+        <v>11</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="O58" s="2">
+        <f t="shared" si="39"/>
+        <v>13</v>
+      </c>
+      <c r="P58" s="2">
+        <f t="shared" si="40"/>
+        <v>14</v>
+      </c>
+      <c r="Q58" s="2">
+        <f t="shared" ref="Q58:Q65" si="42">P58+1</f>
+        <v>15</v>
+      </c>
+      <c r="R58" s="2">
+        <f t="shared" ref="R58:R59" si="43">Q58+1</f>
+        <v>16</v>
+      </c>
+      <c r="S58" s="2">
+        <f t="shared" ref="S58:S65" si="44">R58+1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K59" s="2">
+        <f t="shared" si="41"/>
+        <v>18</v>
+      </c>
+      <c r="L59" s="2">
+        <f>K59+1</f>
+        <v>19</v>
+      </c>
+      <c r="M59" s="2">
+        <f t="shared" si="37"/>
+        <v>20</v>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" si="38"/>
+        <v>21</v>
+      </c>
+      <c r="O59" s="2">
+        <f t="shared" si="39"/>
+        <v>22</v>
+      </c>
+      <c r="P59" s="2">
+        <f t="shared" si="40"/>
+        <v>23</v>
+      </c>
+      <c r="Q59" s="2">
+        <f t="shared" si="42"/>
+        <v>24</v>
+      </c>
+      <c r="R59" s="2">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="S59" s="2">
+        <f t="shared" si="44"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K60" s="1">
+        <f t="shared" si="41"/>
+        <v>27</v>
+      </c>
+      <c r="L60" s="1">
+        <f t="shared" ref="L60:L65" si="45">K60+1</f>
+        <v>28</v>
+      </c>
+      <c r="M60" s="1">
+        <f t="shared" si="37"/>
+        <v>29</v>
+      </c>
+      <c r="N60" s="1">
+        <f t="shared" si="38"/>
+        <v>30</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="39"/>
+        <v>31</v>
+      </c>
+      <c r="P60" s="1">
+        <f t="shared" si="40"/>
+        <v>32</v>
+      </c>
+      <c r="Q60" s="1">
+        <f t="shared" si="42"/>
+        <v>33</v>
+      </c>
+      <c r="R60" s="1">
+        <f>Q60+1</f>
+        <v>34</v>
+      </c>
+      <c r="S60" s="1">
+        <f t="shared" si="44"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K61" s="1">
+        <f t="shared" si="41"/>
+        <v>36</v>
+      </c>
+      <c r="L61" s="1">
+        <f t="shared" si="45"/>
+        <v>37</v>
+      </c>
+      <c r="M61" s="1">
+        <f t="shared" si="37"/>
+        <v>38</v>
+      </c>
+      <c r="N61" s="1">
+        <f t="shared" si="38"/>
+        <v>39</v>
+      </c>
+      <c r="O61" s="1">
+        <f t="shared" si="39"/>
+        <v>40</v>
+      </c>
+      <c r="P61" s="1">
+        <f t="shared" si="40"/>
+        <v>41</v>
+      </c>
+      <c r="Q61" s="1">
+        <f t="shared" si="42"/>
+        <v>42</v>
+      </c>
+      <c r="R61" s="1">
+        <f t="shared" ref="R61:R65" si="46">Q61+1</f>
+        <v>43</v>
+      </c>
+      <c r="S61" s="1">
+        <f t="shared" si="44"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K62" s="1">
+        <f t="shared" si="41"/>
+        <v>45</v>
+      </c>
+      <c r="L62" s="1">
+        <f t="shared" si="45"/>
+        <v>46</v>
+      </c>
+      <c r="M62" s="1">
+        <f t="shared" si="37"/>
+        <v>47</v>
+      </c>
+      <c r="N62" s="1">
+        <f t="shared" si="38"/>
+        <v>48</v>
+      </c>
+      <c r="O62" s="1">
+        <f t="shared" si="39"/>
+        <v>49</v>
+      </c>
+      <c r="P62" s="1">
+        <f t="shared" si="40"/>
+        <v>50</v>
+      </c>
+      <c r="Q62" s="1">
+        <f t="shared" si="42"/>
+        <v>51</v>
+      </c>
+      <c r="R62" s="1">
+        <f t="shared" si="46"/>
+        <v>52</v>
+      </c>
+      <c r="S62" s="1">
+        <f t="shared" si="44"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <f t="shared" si="41"/>
+        <v>54</v>
+      </c>
+      <c r="L63" s="3">
+        <f t="shared" si="45"/>
+        <v>55</v>
+      </c>
+      <c r="M63" s="3">
+        <f t="shared" si="37"/>
+        <v>56</v>
+      </c>
+      <c r="N63" s="3">
+        <f t="shared" si="38"/>
+        <v>57</v>
+      </c>
+      <c r="O63" s="3">
+        <f t="shared" si="39"/>
+        <v>58</v>
+      </c>
+      <c r="P63" s="3">
+        <f t="shared" si="40"/>
+        <v>59</v>
+      </c>
+      <c r="Q63" s="3">
+        <f t="shared" si="42"/>
+        <v>60</v>
+      </c>
+      <c r="R63" s="3">
+        <f t="shared" si="46"/>
+        <v>61</v>
+      </c>
+      <c r="S63" s="3">
+        <f t="shared" si="44"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <f t="shared" si="41"/>
+        <v>63</v>
+      </c>
+      <c r="L64" s="3">
+        <f t="shared" si="45"/>
+        <v>64</v>
+      </c>
+      <c r="M64" s="3">
+        <f t="shared" si="37"/>
+        <v>65</v>
+      </c>
+      <c r="N64" s="3">
+        <f t="shared" si="38"/>
+        <v>66</v>
+      </c>
+      <c r="O64" s="3">
+        <f t="shared" si="39"/>
+        <v>67</v>
+      </c>
+      <c r="P64" s="3">
+        <f t="shared" si="40"/>
+        <v>68</v>
+      </c>
+      <c r="Q64" s="3">
+        <f t="shared" si="42"/>
+        <v>69</v>
+      </c>
+      <c r="R64" s="3">
+        <f t="shared" si="46"/>
+        <v>70</v>
+      </c>
+      <c r="S64" s="3">
+        <f t="shared" si="44"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="11:19" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <f t="shared" si="41"/>
+        <v>72</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" si="45"/>
+        <v>73</v>
+      </c>
+      <c r="M65" s="3">
+        <f t="shared" si="37"/>
+        <v>74</v>
+      </c>
+      <c r="N65" s="3">
+        <f t="shared" si="38"/>
+        <v>75</v>
+      </c>
+      <c r="O65" s="3">
+        <f t="shared" si="39"/>
+        <v>76</v>
+      </c>
+      <c r="P65" s="3">
+        <f t="shared" si="40"/>
+        <v>77</v>
+      </c>
+      <c r="Q65" s="3">
+        <f t="shared" si="42"/>
+        <v>78</v>
+      </c>
+      <c r="R65" s="3">
+        <f t="shared" si="46"/>
+        <v>79</v>
+      </c>
+      <c r="S65" s="3">
+        <f t="shared" si="44"/>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
